--- a/P2/Ques2_.xlsx
+++ b/P2/Ques2_.xlsx
@@ -476,14 +476,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S08502</t>
+          <t>S07305</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1262</v>
+        <v>1085</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -492,14 +492,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S07515</t>
+          <t>S10508</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1125</v>
+        <v>1568</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -508,14 +508,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S07305</t>
+          <t>S10501</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1085</v>
+        <v>1561</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -524,14 +524,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S10501</t>
+          <t>S12103</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1561</v>
+        <v>1803</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -540,14 +540,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S10508</t>
+          <t>S13004</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1568</v>
+        <v>1939</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -556,14 +556,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S12103</t>
+          <t>S13809</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1803</v>
+        <v>2064</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S13004</t>
+          <t>S14510</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1939</v>
+        <v>2170</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -588,14 +588,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S13809</t>
+          <t>S13812</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -604,14 +604,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S14510</t>
+          <t>S14908</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2170</v>
+        <v>2228</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -620,14 +620,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S13812</t>
+          <t>S14401</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2067</v>
+        <v>2146</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -636,11 +636,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S14908</t>
+          <t>S15911</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2228</v>
+        <v>2381</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -652,11 +652,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S14401</t>
+          <t>S13509</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2146</v>
+        <v>2019</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -668,14 +668,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S15911</t>
+          <t>S12608</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2381</v>
+        <v>1883</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -684,11 +684,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S13509</t>
+          <t>S11205</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2019</v>
+        <v>1670</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -700,11 +700,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S12608</t>
+          <t>S11106</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1883</v>
+        <v>1656</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -716,11 +716,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S11205</t>
+          <t>S10115</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1670</v>
+        <v>1515</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -732,11 +732,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S11106</t>
+          <t>S07212</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1656</v>
+        <v>1077</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -748,14 +748,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S10115</t>
+          <t>S06213</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1515</v>
+        <v>928</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -764,14 +764,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S07212</t>
+          <t>S07515</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1077</v>
+        <v>1125</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -780,14 +780,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S06213</t>
+          <t>S08502</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>928</v>
+        <v>1262</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
